--- a/myAPI/5_readIMU_GPS/layout.xlsx
+++ b/myAPI/5_readIMU_GPS/layout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Python\myAPI\3_readPIG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam\Documents\GitHub\adamShiau_Python\myAPI\5_readIMU_GPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA8EDF9-6878-4A0B-A66E-1207A2E1A20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182032AA-4071-465E-9C12-4FA28B843E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="3075" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25380" yWindow="5205" windowWidth="12435" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,12 +116,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -129,6 +123,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -145,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -159,6 +189,11 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -445,12 +480,12 @@
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="19" width="3.5703125" customWidth="1"/>
+    <col min="1" max="19" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>0</v>
       </c>
@@ -482,20 +517,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -506,7 +541,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -517,7 +552,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -528,27 +563,27 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -562,18 +597,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F08198-54E2-4CF4-A1E9-1BAF976AA403}">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="22" width="3.5703125" customWidth="1"/>
+    <col min="1" max="22" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>0</v>
       </c>
@@ -653,107 +688,136 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
+        <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
+        <f t="shared" ref="A4:A26" si="1">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7" s="6"/>
@@ -766,19 +830,20 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8" s="6"/>
@@ -791,19 +856,20 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9" s="6"/>
@@ -816,19 +882,20 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" s="6"/>
@@ -841,19 +908,20 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11" s="6"/>
@@ -866,19 +934,20 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" s="6"/>
@@ -891,50 +960,339 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
+        <f t="shared" si="1"/>
         <v>13</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/myAPI/5_readIMU_GPS/layout.xlsx
+++ b/myAPI/5_readIMU_GPS/layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam\Documents\GitHub\adamShiau_Python\myAPI\5_readIMU_GPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182032AA-4071-465E-9C12-4FA28B843E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A6915B-F89F-401B-92B0-4075DAC1D90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25380" yWindow="5205" windowWidth="12435" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28215" yWindow="2310" windowWidth="12435" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -600,7 +600,7 @@
   <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -748,15 +748,8 @@
       <c r="E4" s="11"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
